--- a/moving_files/Purchases-AD321146.xlsx
+++ b/moving_files/Purchases-AD321146.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharc\Documents\GitHub\machine_learning\moving_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29B7B53-3273-420E-AD07-F010152B0E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0608188A-97BF-44CD-8996-C3B0A7D00BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D469746A-FB0D-417D-99BD-69F12A449DDB}"/>
   </bookViews>
@@ -37,19 +37,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="10">
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
     <t>Compra</t>
-  </si>
-  <si>
-    <t>Setor</t>
   </si>
   <si>
     <t>A</t>
@@ -66,15 +54,34 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +107,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,35 +432,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD102AD-D3D5-41FC-B566-D9B1C2C757B8}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F1">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -459,7 +469,7 @@
         <v>44755</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$F$1:$G$5,2,0)</f>
@@ -467,13 +477,13 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>1087</v>
+        <v>6830</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -481,21 +491,21 @@
         <v>44756</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">VLOOKUP(RANDBETWEEN(1,5),$F$1:$G$5,2,0)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1000,10000)</f>
-        <v>5145</v>
+        <v>8490</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -503,21 +513,21 @@
         <v>44757</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4990</v>
+        <v>7028</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,21 +535,21 @@
         <v>44758</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9210</v>
+        <v>2336</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -547,15 +557,15 @@
         <v>44759</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6987</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -563,7 +573,7 @@
         <v>44760</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -571,7 +581,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6238</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -579,15 +589,15 @@
         <v>44761</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1238</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -595,15 +605,15 @@
         <v>44762</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8212</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,7 +621,7 @@
         <v>44763</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -619,7 +629,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8808</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -627,15 +637,15 @@
         <v>44764</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6820</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,15 +653,15 @@
         <v>44765</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2166</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -659,15 +669,15 @@
         <v>44766</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2787</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,15 +685,15 @@
         <v>44767</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4412</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -691,15 +701,15 @@
         <v>44768</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2993</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,15 +717,15 @@
         <v>44769</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9414</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,15 +733,15 @@
         <v>44770</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8589</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,15 +749,15 @@
         <v>44771</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4423</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,15 +765,15 @@
         <v>44772</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3086</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,15 +781,15 @@
         <v>44773</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7179</v>
+        <v>9581</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,15 +797,15 @@
         <v>44774</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8471</v>
+        <v>7002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,7 +813,7 @@
         <v>44775</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -811,7 +821,7 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4376</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +829,7 @@
         <v>44776</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -827,7 +837,7 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5013</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +845,7 @@
         <v>44777</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -843,7 +853,7 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4149</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,15 +861,15 @@
         <v>44778</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2908</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,15 +877,15 @@
         <v>44779</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7080</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,15 +893,15 @@
         <v>44780</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1815</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,7 +909,7 @@
         <v>44781</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -907,7 +917,7 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6763</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,15 +925,15 @@
         <v>44782</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5860</v>
+        <v>9478</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,15 +941,15 @@
         <v>44783</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9089</v>
+        <v>6868</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,7 +957,7 @@
         <v>44784</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -955,7 +965,7 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4025</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,15 +973,15 @@
         <v>44785</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3327</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,15 +989,15 @@
         <v>44786</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7021</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,7 +1005,7 @@
         <v>44787</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1003,7 +1013,7 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4620</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,15 +1021,15 @@
         <v>44788</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1914</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,15 +1037,15 @@
         <v>44789</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7269</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,15 +1053,15 @@
         <v>44790</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6327</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,15 +1069,15 @@
         <v>44791</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8538</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,7 +1085,7 @@
         <v>44792</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1083,7 +1093,7 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3635</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,15 +1101,15 @@
         <v>44793</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8477</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,15 +1117,15 @@
         <v>44794</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1756</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,15 +1133,15 @@
         <v>44795</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4761</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,15 +1149,15 @@
         <v>44796</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5621</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,15 +1165,15 @@
         <v>44797</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5360</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,15 +1181,15 @@
         <v>44798</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9057</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,15 +1197,15 @@
         <v>44799</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9226</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,15 +1213,15 @@
         <v>44800</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8314</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,15 +1229,15 @@
         <v>44801</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1295</v>
+        <v>7289</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,15 +1245,15 @@
         <v>44802</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7581</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,15 +1261,15 @@
         <v>44803</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7984</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,15 +1277,15 @@
         <v>44804</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6028</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,15 +1293,15 @@
         <v>44805</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9638</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1309,7 @@
         <v>44806</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1307,7 +1317,7 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2880</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,15 +1325,15 @@
         <v>44807</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1909</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,7 +1341,7 @@
         <v>44808</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1339,7 +1349,7 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4329</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,15 +1357,15 @@
         <v>44809</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8544</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,15 +1373,15 @@
         <v>44810</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8750</v>
+        <v>8999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1379,15 +1389,15 @@
         <v>44811</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4545</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,15 +1405,15 @@
         <v>44812</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4815</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,15 +1421,15 @@
         <v>44813</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8986</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,15 +1437,15 @@
         <v>44814</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7094</v>
+        <v>7719</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,7 +1453,7 @@
         <v>44815</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1451,7 +1461,7 @@
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7089</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,7 +1469,7 @@
         <v>44816</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1467,7 +1477,7 @@
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7894</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,15 +1485,15 @@
         <v>44817</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5998</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,7 +1501,7 @@
         <v>44818</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1499,7 +1509,7 @@
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5233</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,15 +1517,15 @@
         <v>44819</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2316</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,7 +1533,7 @@
         <v>44820</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C130" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,5),$F$1:$G$5,2,0)</f>
@@ -1531,7 +1541,7 @@
       </c>
       <c r="D67" s="2">
         <f t="shared" ref="D67:D130" ca="1" si="3">RANDBETWEEN(1000,10000)</f>
-        <v>7122</v>
+        <v>9735</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,7 +1549,7 @@
         <v>44821</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1547,7 +1557,7 @@
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6642</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,15 +1565,15 @@
         <v>44822</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4536</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,7 +1581,7 @@
         <v>44823</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1579,7 +1589,7 @@
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8687</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,15 +1597,15 @@
         <v>44824</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1724</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,15 +1613,15 @@
         <v>44825</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3744</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,7 +1629,7 @@
         <v>44826</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1627,7 +1637,7 @@
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2122</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,15 +1645,15 @@
         <v>44827</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5741</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1651,15 +1661,15 @@
         <v>44828</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5489</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,15 +1677,15 @@
         <v>44829</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4055</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,15 +1693,15 @@
         <v>44830</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8928</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,15 +1709,15 @@
         <v>44831</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9106</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,15 +1725,15 @@
         <v>44832</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8471</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,15 +1741,15 @@
         <v>44833</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3183</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,15 +1757,15 @@
         <v>44834</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8798</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,7 +1773,7 @@
         <v>44835</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1771,7 +1781,7 @@
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7820</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,15 +1789,15 @@
         <v>44836</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6473</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,15 +1805,15 @@
         <v>44837</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7299</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,7 +1821,7 @@
         <v>44838</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1819,7 +1829,7 @@
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1317</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,7 +1837,7 @@
         <v>44839</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1835,7 +1845,7 @@
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4607</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,15 +1853,15 @@
         <v>44840</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2607</v>
+        <v>8834</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,15 +1869,15 @@
         <v>44841</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2131</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1875,15 +1885,15 @@
         <v>44842</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5389</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1891,15 +1901,15 @@
         <v>44843</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8179</v>
+        <v>9681</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,15 +1917,15 @@
         <v>44844</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3058</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1923,15 +1933,15 @@
         <v>44845</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9148</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,15 +1949,15 @@
         <v>44846</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7404</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1955,15 +1965,15 @@
         <v>44847</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2138</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,15 +1981,15 @@
         <v>44848</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9157</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1987,15 +1997,15 @@
         <v>44849</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4858</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2003,15 +2013,15 @@
         <v>44850</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5559</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2019,15 +2029,15 @@
         <v>44851</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8796</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,15 +2045,15 @@
         <v>44852</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6575</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,15 +2061,15 @@
         <v>44853</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1673</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,7 +2077,7 @@
         <v>44854</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2075,7 +2085,7 @@
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7204</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,15 +2093,15 @@
         <v>44855</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2048</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2099,15 +2109,15 @@
         <v>44856</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7930</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,15 +2125,15 @@
         <v>44857</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7659</v>
+        <v>9875</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,15 +2141,15 @@
         <v>44858</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2465</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,15 +2157,15 @@
         <v>44859</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="D106" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8331</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,15 +2173,15 @@
         <v>44860</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3024</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2179,15 +2189,15 @@
         <v>44861</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8141</v>
+        <v>9301</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,15 +2205,15 @@
         <v>44862</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9381</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,15 +2221,15 @@
         <v>44863</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="D110" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3774</v>
+        <v>7051</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2227,15 +2237,15 @@
         <v>44864</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6214</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,7 +2253,7 @@
         <v>44865</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2251,7 +2261,7 @@
       </c>
       <c r="D112" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9252</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,15 +2269,15 @@
         <v>44866</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9281</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,15 +2285,15 @@
         <v>44867</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9466</v>
+        <v>9417</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,7 +2301,7 @@
         <v>44868</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2299,7 +2309,7 @@
       </c>
       <c r="D115" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8525</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,7 +2317,7 @@
         <v>44869</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2315,7 +2325,7 @@
       </c>
       <c r="D116" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9362</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,15 +2333,15 @@
         <v>44870</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="D117" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8071</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2339,15 +2349,15 @@
         <v>44871</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6786</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,15 +2365,15 @@
         <v>44872</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="D119" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9345</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,7 +2381,7 @@
         <v>44873</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2379,7 +2389,7 @@
       </c>
       <c r="D120" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7018</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,15 +2397,15 @@
         <v>44874</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="D121" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1820</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2403,15 +2413,15 @@
         <v>44875</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D122" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9686</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,15 +2429,15 @@
         <v>44876</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D123" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8036</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2435,7 +2445,7 @@
         <v>44877</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2443,7 +2453,7 @@
       </c>
       <c r="D124" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8043</v>
+        <v>9892</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2451,15 +2461,15 @@
         <v>44878</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="D125" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8659</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,7 +2477,7 @@
         <v>44879</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2475,7 +2485,7 @@
       </c>
       <c r="D126" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7545</v>
+        <v>8084</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,15 +2493,15 @@
         <v>44880</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="D127" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4911</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,15 +2509,15 @@
         <v>44881</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="D128" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6910</v>
+        <v>8325</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,15 +2525,15 @@
         <v>44882</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="D129" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4693</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,15 +2541,15 @@
         <v>44883</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D130" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1301</v>
+        <v>9143</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,15 +2557,15 @@
         <v>44884</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" ref="C131:C142" ca="1" si="4">VLOOKUP(RANDBETWEEN(1,5),$F$1:$G$5,2,0)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" ref="D131:D142" ca="1" si="5">RANDBETWEEN(1000,10000)</f>
-        <v>1615</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,15 +2573,15 @@
         <v>44885</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D132" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2082</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2579,15 +2589,15 @@
         <v>44886</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5613</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,15 +2605,15 @@
         <v>44887</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="D134" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8222</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,15 +2621,15 @@
         <v>44888</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2101</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,15 +2637,15 @@
         <v>44889</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4313</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,15 +2653,15 @@
         <v>44890</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="D137" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4517</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +2669,7 @@
         <v>44891</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2667,7 +2677,7 @@
       </c>
       <c r="D138" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8604</v>
+        <v>9574</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,15 +2685,15 @@
         <v>44892</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D139" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5669</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,15 +2701,15 @@
         <v>44893</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="D140" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9947</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,15 +2717,15 @@
         <v>44894</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="D141" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4355</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,7 +2733,7 @@
         <v>44895</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2731,7 +2741,7 @@
       </c>
       <c r="D142" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3797</v>
+        <v>3195</v>
       </c>
     </row>
   </sheetData>
